--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,94 +46,106 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6948051948051948</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3776824034334764</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2325581395348837</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,69 +740,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +790,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,21 +816,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +842,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.775</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +868,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +894,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +920,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7407407407407407</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +946,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +972,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +998,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7083333333333334</v>
+        <v>0.62</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1024,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1050,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L18">
         <v>29</v>
       </c>
-      <c r="K18">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
       <c r="M18">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1076,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,47 +1102,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>21</v>
-      </c>
-      <c r="M20">
-        <v>21</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6164383561643836</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1154,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5666666666666667</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1180,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.539906103286385</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L23">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M23">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>98</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4961240310077519</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4673913043478261</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,59 +1284,189 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>38</v>
-      </c>
-      <c r="K27">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.40625</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.03658536585365853</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>395</v>
+      <c r="K29">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3682008368200837</v>
+      </c>
+      <c r="L30">
+        <v>88</v>
+      </c>
+      <c r="M30">
+        <v>88</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="L31">
+        <v>33</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.01635514018691589</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>0.92</v>
+      </c>
+      <c r="O32">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.01129396579541788</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3064</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,97 +55,94 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -503,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -672,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2222222222222222</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2131782945736434</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7890625</v>
+        <v>0.775</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -850,13 +847,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.775</v>
+        <v>0.7734375</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -876,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7413793103448276</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -902,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7253521126760564</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -928,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6944444444444444</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -954,13 +951,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6886792452830188</v>
+        <v>0.6875</v>
       </c>
       <c r="L14">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -980,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6875</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1006,13 +1003,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1032,13 +1029,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6063829787234043</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L17">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1058,13 +1055,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1076,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1084,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5957446808510638</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1110,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1136,13 +1133,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1154,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1162,13 +1159,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5169712793733682</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L22">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>185</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1188,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4823529411764706</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L23">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1214,13 +1211,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4719101123595505</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1232,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1240,13 +1237,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4406779661016949</v>
+        <v>0.421875</v>
       </c>
       <c r="L25">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>165</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1266,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4246575342465753</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1292,13 +1289,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4153846153846154</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1310,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1318,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.40625</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1344,13 +1341,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3717948717948718</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>49</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1370,13 +1367,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.3682008368200837</v>
+        <v>0.03107658157602664</v>
       </c>
       <c r="L30">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>151</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1396,25 +1393,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.03691275167785235</v>
+        <v>0.01450209474701901</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>861</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1422,51 +1419,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.01635514018691589</v>
+        <v>0.01399906672888474</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33">
-        <v>0.01129396579541788</v>
-      </c>
-      <c r="L33">
-        <v>35</v>
-      </c>
-      <c r="M33">
-        <v>43</v>
-      </c>
-      <c r="N33">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>3064</v>
+        <v>2113</v>
       </c>
     </row>
   </sheetData>
